--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2173599.615732921</v>
+        <v>2285261.882050314</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18107006.33600774</v>
+        <v>16612500.99216497</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1284537.005234245</v>
+        <v>278692.072591686</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5274893.129609527</v>
+        <v>5574046.697158081</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>332.0164959768354</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>205.6602704170755</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>19.16056802173573</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>100.176219543324</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>232.3488304648444</v>
       </c>
       <c r="F5" t="n">
-        <v>309.860855332061</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1054,16 +1056,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1072,7 +1074,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>2.357357178928582</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1111,7 +1113,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>231.201021768811</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>63.50617658620671</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>287.0790000802538</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1291,7 +1293,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>122.6391170798909</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1300,16 +1302,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>225.259123432647</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1354,10 +1356,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1372,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1379,7 +1381,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1388,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>78.1907573272869</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1543,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>54.66258501924893</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1585,7 +1587,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1625,7 +1627,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,19 +1663,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>217.4991533452802</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1770,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>109.1426757626846</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1828,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>103.3456594571957</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633437</v>
       </c>
     </row>
     <row r="18">
@@ -2014,10 +2016,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>18.05677735225719</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2135,7 +2137,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2242,7 +2244,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>24.62703520776638</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2254,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2488,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.0133209501119</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2713,7 +2715,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>67.84972440587259</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2728,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,7 +2772,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>214.3693806674597</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2852,7 +2854,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -2950,25 +2952,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>136.9632003754826</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>18.05677735225717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3038,7 +3040,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>397.3838530629687</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3250,7 +3252,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>34.71811217257828</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.412621479132161</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>32.52992480485504</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.2363335358519</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791323137</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>26.24351759540753</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>311.9829182918966</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.0905310873978</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>6.152702232452154</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.2363335358519</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>127.6539143625306</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>26.24351759540798</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1250.721030006719</v>
+        <v>763.0287521501522</v>
       </c>
       <c r="C2" t="n">
-        <v>915.3508320503199</v>
+        <v>728.9266833739796</v>
       </c>
       <c r="D2" t="n">
-        <v>486.7691577875882</v>
+        <v>697.0573025888282</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>667.3229617875274</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>643.4959362371393</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>242.0981048604032</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4337,43 +4339,43 @@
         <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1612.716505715692</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1597.614446335406</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>1189.32832263506</v>
       </c>
     </row>
     <row r="3">
@@ -4413,22 +4415,22 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1644.724363562988</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4462,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.3833729168607</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="C4" t="n">
-        <v>199.8216614000857</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>535.4982810365143</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>358.7912269982705</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>193.1999520240982</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>53.29777771447272</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>68.4625259617433</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>343.2209805328789</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M4" t="n">
-        <v>395.2818083374338</v>
+        <v>761.43086230084</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4510,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1595.995329531605</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1309.039821402036</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>1037.013416988327</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="X4" t="n">
-        <v>791.6216623217397</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="Y4" t="n">
-        <v>564.2019916358479</v>
+        <v>705.2562847857771</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>442.640221925911</v>
+        <v>1183.424247503185</v>
       </c>
       <c r="C5" t="n">
-        <v>408.5381531497384</v>
+        <v>745.2817746866085</v>
       </c>
       <c r="D5" t="n">
-        <v>376.668772364587</v>
+        <v>309.371989861053</v>
       </c>
       <c r="E5" t="n">
-        <v>346.9344315632862</v>
+        <v>74.6762015127253</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233709</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233709</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233709</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1728.364480676019</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>2352.465264720798</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>2352.465264720798</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2352.465264720798</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720798</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657692</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657692</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657692</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657692</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>2437.152405109129</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>2018.00994168844</v>
       </c>
       <c r="Y5" t="n">
-        <v>464.8993883704147</v>
+        <v>1609.723817988093</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993469</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>339.4371178854062</v>
+        <v>1129.490547201358</v>
       </c>
       <c r="C7" t="n">
-        <v>339.4371178854062</v>
+        <v>956.9288356845833</v>
       </c>
       <c r="D7" t="n">
-        <v>339.4371178854062</v>
+        <v>791.050842886106</v>
       </c>
       <c r="E7" t="n">
-        <v>339.4371178854062</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>325.1908411606127</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>1181.483761245743</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2519.23816060625</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2359.996791904246</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2114.117345482702</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1835.684344735807</v>
       </c>
       <c r="V7" t="n">
-        <v>758.675407290285</v>
+        <v>1548.728836606237</v>
       </c>
       <c r="W7" t="n">
-        <v>758.675407290285</v>
+        <v>1548.728836606237</v>
       </c>
       <c r="X7" t="n">
-        <v>758.675407290285</v>
+        <v>1548.728836606237</v>
       </c>
       <c r="Y7" t="n">
-        <v>531.2557366043933</v>
+        <v>1321.309165920346</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>1415.517618276922</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1407.204642120565</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>988.0621786998757</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y8" t="n">
-        <v>579.7760549995292</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N9" t="n">
-        <v>804.6185656731816</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O9" t="n">
-        <v>804.6185656731816</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>718.8484307043673</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>546.2867191875922</v>
+        <v>617.5993366113188</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4087263891149</v>
+        <v>451.7213438128414</v>
       </c>
       <c r="E10" t="n">
-        <v>210.6507226398521</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>395.2818083374338</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>761.8145120199619</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1469.648961966632</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1182.693453837063</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>910.6670494233545</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>910.6670494233545</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>910.6670494233545</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1636.363475742175</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1636.363475742175</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1200.453690916619</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>766.6789460749142</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>766.6789460749142</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>365.281114698178</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H11" t="n">
-        <v>76.15096014139425</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I11" t="n">
-        <v>76.15096014139425</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>511.4056475943122</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1345.75593955249</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1345.75593955249</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1345.75593955249</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>1345.75593955249</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>2263.585281524664</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>3091.89515635806</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3638.393942316655</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>3807.548007069712</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3728.567444112857</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3508.500216985895</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3249.277914302912</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>2886.660964236738</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2481.805509647771</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2062.663046227082</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2062.663046227082</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.322705132687</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.8662439693293</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7759551158826</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6555404428363</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2717020589979</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8866123251818</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.15096014139425</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>76.15096014139425</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>76.15096014139425</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>76.15096014139425</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1018.519091891148</v>
+        <v>634.526213836947</v>
       </c>
       <c r="M12" t="n">
-        <v>1018.519091891148</v>
+        <v>634.526213836947</v>
       </c>
       <c r="N12" t="n">
-        <v>1018.519091891148</v>
+        <v>634.526213836947</v>
       </c>
       <c r="O12" t="n">
-        <v>1081.479004893788</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P12" t="n">
-        <v>1081.479004893788</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.217943525863</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.390721620203</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.935284068586</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.756640399188</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.420093399156</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.302575461155</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9798211943494</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.1123854332294</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6266062124502</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1155.209120753276</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>982.6474092365005</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>816.7694164380232</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>647.0114126887605</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>470.3043586505167</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>304.7130836763444</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>164.8109093667189</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>76.15096014139425</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7306453060841</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4890998772197</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6989816451807</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.182848826094</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.441651983738</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.11090120952</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.617795179862</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.810570044194</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.392748749566</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2616.17801640689</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T13" t="n">
-        <v>2370.298569985345</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>2091.86556923845</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>2091.86556923845</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1819.839164824742</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1574.447410158155</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1347.027739472263</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2502.373378149543</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2064.230905332967</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1628.321120507411</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1194.546375665706</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>766.6789460749142</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G14" t="n">
-        <v>365.281114698178</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
-        <v>76.15096014139425</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I14" t="n">
-        <v>76.15096014139425</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>76.15096014139425</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>152.1337369870548</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L14" t="n">
-        <v>1094.501868736809</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M14" t="n">
-        <v>2036.870000486562</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N14" t="n">
-        <v>2036.870000486562</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O14" t="n">
-        <v>2979.238132236316</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P14" t="n">
-        <v>3807.548007069713</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q14" t="n">
-        <v>3807.548007069713</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R14" t="n">
-        <v>3807.548007069713</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>3723.89613325355</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>3503.828906126588</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>3503.828906126588</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3141.211956060415</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>2921.515841570233</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2502.373378149543</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2502.373378149543</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.322705132687</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.8662439693293</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7759551158826</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6555404428363</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2717020589979</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8866123251818</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.15096014139425</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>76.15096014139425</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>76.15096014139425</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>76.15096014139425</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L15" t="n">
-        <v>76.15096014139425</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="M15" t="n">
-        <v>76.15096014139425</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="N15" t="n">
-        <v>76.15096014139425</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O15" t="n">
-        <v>919.6675551410048</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P15" t="n">
-        <v>1739.390721620203</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q15" t="n">
-        <v>1739.390721620203</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.390721620203</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.935284068586</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.756640399188</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.420093399156</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.302575461155</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9798211943494</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.1123854332294</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6266062124502</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>926.6469972183254</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C16" t="n">
-        <v>754.0852857015503</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D16" t="n">
-        <v>588.207292903073</v>
+        <v>507.5300178439735</v>
       </c>
       <c r="E16" t="n">
-        <v>418.4492891538104</v>
+        <v>507.5300178439735</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7422351155666</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="G16" t="n">
-        <v>76.15096014139425</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H16" t="n">
-        <v>76.15096014139425</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>76.15096014139425</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7306453060841</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4890998772197</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6989816451807</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.182848826094</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.441651983738</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.11090120952</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.617795179862</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.810570044194</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2692.810570044194</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2533.56920134219</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2287.689754920646</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2009.256754173751</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.301246044181</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1450.274841630473</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1345.885286623204</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y16" t="n">
-        <v>1118.465615937313</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5516,49 +5518,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.348304557487</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883914</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C19" t="n">
-        <v>639.1929661716164</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D19" t="n">
-        <v>473.3149733731391</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E19" t="n">
-        <v>303.5569696238763</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F19" t="n">
-        <v>126.8499155856325</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.99296709327</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.573296407379</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5740,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5750,37 +5752,37 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
         <v>4550.100609912873</v>
@@ -5789,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2683.3639582443</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5990,49 +5992,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M23" t="n">
-        <v>3159.001155269138</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N23" t="n">
-        <v>4284.732138705585</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O23" t="n">
-        <v>4284.732138705585</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P23" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6068,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1082.867562242341</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1082.867562242341</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>1082.867562242341</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3402.878852731288</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>3402.878852731288</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>3237.000859932811</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E25" t="n">
-        <v>3067.242856183548</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F25" t="n">
-        <v>2890.535802145304</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G25" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>4953.800644836978</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>4707.921198415434</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>4429.488197668539</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>4142.53268953897</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>3870.506285125261</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>3625.114530458674</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>3402.878852731288</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1177.320806523639</v>
+        <v>2443.348304557486</v>
       </c>
       <c r="M26" t="n">
-        <v>2334.36864173419</v>
+        <v>2443.348304557486</v>
       </c>
       <c r="N26" t="n">
-        <v>3460.099625170637</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O26" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4440.279291740943</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>4986.778077699538</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1041.416826573035</v>
+        <v>1077.292364523333</v>
       </c>
       <c r="C28" t="n">
-        <v>868.8551150562604</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>702.9771222577831</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>533.2191185085204</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>356.5120644702766</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
         <v>190.9207894961043</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1978.07327505821</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W28" t="n">
-        <v>1706.046870644502</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X28" t="n">
-        <v>1460.655115977914</v>
+        <v>1496.530653928212</v>
       </c>
       <c r="Y28" t="n">
-        <v>1233.235445292023</v>
+        <v>1269.11098324232</v>
       </c>
     </row>
     <row r="29">
@@ -6449,64 +6451,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>605.8694973157614</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>1680.929463568621</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2837.977298779172</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N29" t="n">
-        <v>3963.708282215619</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O29" t="n">
-        <v>4943.887948785925</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P29" t="n">
-        <v>4943.887948785925</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903949</v>
+        <v>3205.876241053795</v>
       </c>
       <c r="C31" t="n">
-        <v>798.4343348736198</v>
+        <v>3067.529574007853</v>
       </c>
       <c r="D31" t="n">
-        <v>632.5563420751425</v>
+        <v>2901.651581209376</v>
       </c>
       <c r="E31" t="n">
-        <v>462.7983383258798</v>
+        <v>2901.651581209376</v>
       </c>
       <c r="F31" t="n">
-        <v>286.091284287636</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="G31" t="n">
-        <v>120.5000093134636</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I31" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J31" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>4953.800644836978</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>4707.921198415434</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>4429.488197668539</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>4142.53268953897</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>3870.506285125261</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>3625.114530458674</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>3397.694859772782</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6701,49 +6703,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6779,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2525.854933458241</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2088.129250014525</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.636254561829</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>791.8276588750508</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G35" t="n">
-        <v>390.8466168711748</v>
+        <v>391.8077842004242</v>
       </c>
       <c r="H35" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436404</v>
       </c>
       <c r="I35" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.133251687251</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.483543645429</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.543509898288</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.591345108839</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N35" t="n">
-        <v>4294.322328545286</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O35" t="n">
-        <v>4294.322328545286</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="P35" t="n">
-        <v>5106.662584362552</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="Q35" t="n">
-        <v>5106.662584362552</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4803.777062165147</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4544.971548855024</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4182.771388161711</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3359.607048897776</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2951.737714570289</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.133251687251</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.133251687251</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K36" t="n">
-        <v>102.133251687251</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L36" t="n">
-        <v>449.4754009792206</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M36" t="n">
-        <v>1648.20023507172</v>
+        <v>414.500552094942</v>
       </c>
       <c r="N36" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O36" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P36" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>818.229366202464</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>646.0844440585489</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>480.6232406329316</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>311.2820262565288</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>134.991761591145</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>189.121432116281</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>464.2883819517567</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>882.9067589840579</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2563.236244375628</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2317.773587326943</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2039.757375952908</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1753.218657196199</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1481.60904215535</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1236.634076861623</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1009.631195548591</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2525.854933458239</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2088.129250014523</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.636254561827</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1219.278299092982</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>791.82765887505</v>
+        <v>793.2056155771604</v>
       </c>
       <c r="G38" t="n">
-        <v>390.8466168711739</v>
+        <v>391.8077842004243</v>
       </c>
       <c r="H38" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436405</v>
       </c>
       <c r="I38" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>198.8206567928643</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1033.170948751042</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2108.230915003901</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3265.278750214452</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4391.0097336509</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>4391.0097336509</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4391.0097336509</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4937.508519609494</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5106.662584362551</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4803.777062165146</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4544.971548855023</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4182.771388161709</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3778.332722945603</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3359.607048897774</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2951.737714570287</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K39" t="n">
-        <v>102.133251687251</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L39" t="n">
-        <v>102.133251687251</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M39" t="n">
-        <v>102.133251687251</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N39" t="n">
-        <v>102.133251687251</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.461296439645</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.5453418998824</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>778.4004197559673</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>612.93921633035</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>443.5980019539472</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>267.3077372885634</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>189.1214321162809</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>464.2883819517566</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>882.9067589840578</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2695.552220073047</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2450.089563024362</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2172.073351650327</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1885.534632893617</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.925017852769</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1368.950052559041</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1141.947171246009</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2499.745053328855</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2062.019369885138</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1626.526374432442</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1193.168418963598</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>765.7177787456654</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>364.7367367417893</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>76.02337155786564</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>76.02337155786564</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>511.2780590107835</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>1345.628350968962</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L41" t="n">
-        <v>1345.628350968962</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M41" t="n">
-        <v>1345.628350968962</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N41" t="n">
-        <v>1345.628350968962</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O41" t="n">
-        <v>2257.205852348234</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P41" t="n">
-        <v>3085.51572718163</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q41" t="n">
-        <v>3632.014513140225</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R41" t="n">
-        <v>3801.168577893282</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>3801.168577893282</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>3581.518140139181</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>3581.518140139181</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>3219.317979445867</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>2814.87931422976</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2499.745053328855</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2499.745053328855</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.1951165491585</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.7386553858007</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.648366532354</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.5279518593077</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.1441134754693</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.7590237416532</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>76.02337155786564</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>76.02337155786564</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>76.02337155786564</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>76.02337155786564</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1016.812594586453</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1016.812594586453</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1016.812594586453</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1016.812594586453</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1081.351416310259</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.090354942335</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.263133036675</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.807695485058</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.629051815659</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.292504815628</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.174986877627</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.8522326108209</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>829.9847968497008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.4990176289216</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1070.135697447113</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>897.9907753031981</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>732.5295718775808</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>563.188357501178</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>386.8980928357942</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>221.7236072344818</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>82.23822229771631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>76.02337155786564</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>163.0115519868956</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>438.1785018223713</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>856.7968788546724</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1316.689241299925</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1759.35653972191</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.434284212032</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2527.349673446714</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2695.950943575386</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2695.950943575386</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2537.126364246243</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2291.663707197558</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2291.663707197558</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>2005.124988440848</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1733.5153734</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1488.540408106272</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1261.53752679324</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1479.166440299094</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1041.440756855377</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>605.9477614026817</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>477.0044135617417</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>477.0044135617417</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>76.02337155786564</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>76.02337155786564</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>76.02337155786564</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>511.2780590107835</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>511.2780590107835</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L44" t="n">
-        <v>1452.067282039371</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M44" t="n">
-        <v>2392.856505067958</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N44" t="n">
-        <v>3333.645728096545</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O44" t="n">
-        <v>3632.014513140225</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P44" t="n">
-        <v>3632.014513140225</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q44" t="n">
-        <v>3632.014513140225</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R44" t="n">
-        <v>3801.168577893282</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>3717.933493449979</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>3498.283055695877</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>3498.283055695877</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3136.082895002564</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>2731.644229786457</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>2312.918555738628</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>1905.049221411142</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.1951165491585</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.7386553858007</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.648366532354</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.5279518593077</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.1441134754693</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.7590237416532</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>76.02337155786564</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.0870447183232</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>426.6453696845356</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>426.6453696845356</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1367.434592713123</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1367.434592713123</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1367.434592713123</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1367.434592713123</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1367.434592713123</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.090354942335</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.263133036675</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.807695485058</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.629051815659</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.292504815628</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.174986877627</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.8522326108209</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>829.9847968497008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.4990176289216</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>924.435461770497</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>752.2905396265819</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>586.8293362009646</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>417.4881218245618</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>241.197857159178</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>76.02337155786564</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>76.02337155786564</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>76.02337155786564</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>163.0115519868956</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>438.1785018223713</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>856.7968788546724</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1316.689241299925</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1759.35653972191</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.434284212032</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2527.349673446714</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2695.950943575386</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2695.950943575386</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2669.442339943661</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2423.979682894976</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2145.963471520941</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1859.424752764232</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1587.815137723383</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1342.840172429656</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1115.837291116624</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7985,22 +7987,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,7 +8063,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>52.98895607821123</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,22 +8136,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>34.86753268700501</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>370.2350542247758</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>624.8248713018634</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>30.9144066474189</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,19 +8382,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>371.7091627680287</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8462,16 +8464,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>226.6534083847603</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,13 +8616,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>370.2350542247758</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8693,16 +8695,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
-        <v>927.1003454264383</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8763,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>951.8870017674279</v>
+        <v>183.4781570095934</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>63.59587171983821</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8927,22 +8929,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>76.75027964208134</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L14" t="n">
-        <v>951.8870017674282</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>951.887001767428</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>951.887001767428</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9006,10 +9008,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>446.2295987639959</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>852.0369646460713</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9164,19 +9166,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>839.1644551322527</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>922.699389992646</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,22 +9640,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1158.919249280123</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9714,13 +9716,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>689.5283227345933</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>1082.305540278395</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>127.53932913075</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>69.04441372935742</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10127,13 +10129,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10361,7 +10363,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,19 +10427,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10598,16 +10600,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>820.5457129467331</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>69.04441372935707</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10668,13 +10670,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>350.8506558504744</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>97.66404556122554</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,16 +10831,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10902,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10916,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>920.7853549285583</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
-        <v>950.2921444733206</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>65.19072901394588</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11294,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>950.2921444733205</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>950.2921444733204</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>950.2921444733206</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>301.3826111552321</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,10 +11378,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
-        <v>950.2921444733204</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>257.22804265577</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23258,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>4.624597750714457</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>102.9863699957344</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>183.3077466977968</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>55.07653710780788</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23902,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24177,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.132153028920868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>102.9863699957347</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>69.71657238081411</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>33.87289402612473</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>208.2197249473434</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>130.9928159404442</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.36072825394001</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>20.79102160255044</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.36072825394001</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.79102160255044</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>130.9928159404444</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>421.6239533009273</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.40273359886996</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.2174581770219</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>102.5554990154544</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>403.7906409842117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>81.20802602148785</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.79102160255044</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.2360492602943</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25871,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>301.3704615516257</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.1761338157529</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>285.8262315320845</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25919,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.2174581770219</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.36072825394001</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.79102160255044</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>130.9928159404439</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>452307.0524871736</v>
+        <v>464989.3749104489</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>452307.0524871736</v>
+        <v>467272.8549563744</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>395381.7641503619</v>
+        <v>488947.8667847082</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>395381.7641503619</v>
+        <v>488947.8667847082</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>488947.8667847083</v>
+        <v>488947.8667847082</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>488947.8667847083</v>
+        <v>488947.8667847082</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>489055.4382047335</v>
+        <v>488947.8667847083</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>489055.4382047335</v>
+        <v>488947.8667847083</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>395489.335570387</v>
+        <v>488947.8667847083</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>395489.3355703871</v>
+        <v>488947.8667847083</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26316,22 @@
         <v>522743.6368931484</v>
       </c>
       <c r="C2" t="n">
-        <v>522743.6368931482</v>
+        <v>522743.6368931484</v>
       </c>
       <c r="D2" t="n">
         <v>522743.6368931482</v>
       </c>
       <c r="E2" t="n">
-        <v>415386.0725091324</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="F2" t="n">
-        <v>415386.0725091325</v>
+        <v>513686.1445339184</v>
       </c>
       <c r="G2" t="n">
         <v>513686.1445339185</v>
       </c>
       <c r="H2" t="n">
-        <v>513686.1445339185</v>
+        <v>513686.1445339184</v>
       </c>
       <c r="I2" t="n">
         <v>513686.1445339185</v>
@@ -26341,19 +26343,19 @@
         <v>513686.1445339185</v>
       </c>
       <c r="L2" t="n">
+        <v>513686.1445339186</v>
+      </c>
+      <c r="M2" t="n">
+        <v>513686.1445339184</v>
+      </c>
+      <c r="N2" t="n">
+        <v>513686.1445339184</v>
+      </c>
+      <c r="O2" t="n">
+        <v>513686.1445339184</v>
+      </c>
+      <c r="P2" t="n">
         <v>513686.1445339185</v>
-      </c>
-      <c r="M2" t="n">
-        <v>513916.3356260547</v>
-      </c>
-      <c r="N2" t="n">
-        <v>513916.3356260546</v>
-      </c>
-      <c r="O2" t="n">
-        <v>415616.2636012687</v>
-      </c>
-      <c r="P2" t="n">
-        <v>415616.2636012687</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501621</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998273</v>
       </c>
       <c r="E3" t="n">
-        <v>157527.1086670774</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89454.0811907824</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26392,19 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877254</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622285</v>
       </c>
       <c r="M3" t="n">
-        <v>131410.4758771945</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3.861628258540616e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>205960.9728418668</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>171472.7657924762</v>
       </c>
       <c r="D4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>65855.12204158505</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="F4" t="n">
-        <v>65855.12204158507</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="G4" t="n">
+        <v>81439.57146904284</v>
+      </c>
+      <c r="H4" t="n">
+        <v>81439.57146904278</v>
+      </c>
+      <c r="I4" t="n">
         <v>81439.57146904283</v>
-      </c>
-      <c r="H4" t="n">
-        <v>81439.57146904284</v>
-      </c>
-      <c r="I4" t="n">
-        <v>81439.57146904277</v>
       </c>
       <c r="J4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
-        <v>81439.57146904278</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
+        <v>81439.57146904283</v>
+      </c>
+      <c r="M4" t="n">
         <v>81439.5714690428</v>
       </c>
-      <c r="M4" t="n">
-        <v>81780.38934389869</v>
-      </c>
       <c r="N4" t="n">
-        <v>81780.38934389869</v>
+        <v>81439.5714690428</v>
       </c>
       <c r="O4" t="n">
-        <v>66195.9399164409</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="P4" t="n">
-        <v>66195.93991644091</v>
+        <v>81439.57146904284</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26472,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800259</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57874.72970745962</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>57874.72970745963</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77655.95995743989</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77655.95995743987</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>57812.45105910698</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>57812.45105910698</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26522,22 +26524,22 @@
         <v>115166.5752543493</v>
       </c>
       <c r="C6" t="n">
-        <v>257357.8759140591</v>
+        <v>212726.8893976535</v>
       </c>
       <c r="D6" t="n">
-        <v>257357.8759140591</v>
+        <v>271740.4285218494</v>
       </c>
       <c r="E6" t="n">
-        <v>134129.1120930103</v>
+        <v>172173.2252380335</v>
       </c>
       <c r="F6" t="n">
-        <v>291656.2207600878</v>
+        <v>354528.3344590831</v>
       </c>
       <c r="G6" t="n">
-        <v>265074.2532683008</v>
+        <v>354528.3344590832</v>
       </c>
       <c r="H6" t="n">
-        <v>354528.3344590832</v>
+        <v>354528.334459083</v>
       </c>
       <c r="I6" t="n">
         <v>354528.3344590832</v>
@@ -26546,22 +26548,22 @@
         <v>243513.869114093</v>
       </c>
       <c r="K6" t="n">
+        <v>301482.4798203106</v>
+      </c>
+      <c r="L6" t="n">
+        <v>345136.032732461</v>
+      </c>
+      <c r="M6" t="n">
+        <v>202328.1635210955</v>
+      </c>
+      <c r="N6" t="n">
+        <v>354528.3344590831</v>
+      </c>
+      <c r="O6" t="n">
+        <v>354528.334459083</v>
+      </c>
+      <c r="P6" t="n">
         <v>354528.3344590832</v>
-      </c>
-      <c r="L6" t="n">
-        <v>354528.3344590832</v>
-      </c>
-      <c r="M6" t="n">
-        <v>223069.5104475217</v>
-      </c>
-      <c r="N6" t="n">
-        <v>354479.986324716</v>
-      </c>
-      <c r="O6" t="n">
-        <v>291607.8726257208</v>
-      </c>
-      <c r="P6" t="n">
-        <v>291607.8726257208</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26718,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.887001767428</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.8870017674282</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26822,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>950.2921444733205</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>950.2921444733205</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26938,13 +26940,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483593</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939328</v>
       </c>
       <c r="E4" t="n">
-        <v>527.5911442473238</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.3735016173172</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483593</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939328</v>
       </c>
       <c r="M4" t="n">
-        <v>525.9962869532163</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483593</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939328</v>
       </c>
       <c r="M4" t="n">
-        <v>527.5911442473238</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.3735016173172</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>101.7445521115756</v>
-      </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>80.57858259414044</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>68.61278171133569</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>175.4724511961017</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>197.0881669284433</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>113.7278999628233</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27676,7 +27678,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>18.84628590275326</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>52.88493127946288</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>370.2548715022042</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27871,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,7 +27915,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>113.7278999628232</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>48.19697732171639</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>50.38954730677867</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28855,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29035,7 +29037,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29572,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29758,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>-7.634720442058159e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>-9.161664530469791e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34705,22 +34707,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34781,7 +34783,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>52.98895607821123</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,22 +34856,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>34.86753268700501</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>370.2350542247758</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>624.8248713018634</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>30.9144066474189</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
-        <v>371.7091627680287</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35182,16 +35184,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>226.6534083847603</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35330,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>370.2350542247758</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
-        <v>927.1003454264383</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>951.8870017674279</v>
+        <v>183.4781570095934</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>63.59587171983821</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>76.75027964208134</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L14" t="n">
-        <v>951.8870017674282</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>951.887001767428</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>951.887001767428</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,10 +35728,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>446.2295987639959</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35738,13 +35740,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>852.0369646460713</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,19 +35886,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>839.1644551322527</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>922.699389992646</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,25 +36360,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1158.919249280123</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>-4.524284588552815e-13</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,13 +36436,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36449,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>689.5283227345933</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>1082.305540278395</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>127.53932913075</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36683,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>69.04441372935742</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36926,13 +36928,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37078,10 +37080,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P35" t="n">
-        <v>820.5457129467331</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>69.04441372935707</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>350.8506558504744</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.86684891821207</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>97.66404556122554</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,10 +37636,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.86684891821206</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.5377398436901</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>920.7853549285583</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
-        <v>950.2921444733206</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37874,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>65.19072901394588</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.86684891821207</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>424.320954030426</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>950.2921444733205</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>950.2921444733204</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>950.2921444733206</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O44" t="n">
-        <v>301.3826111552321</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,10 +38098,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
-        <v>950.2921444733204</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>257.22804265577</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.86684891821207</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>424.320954030426</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2285261.882050314</v>
+        <v>2284736.699681283</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16612500.99216497</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -664,19 +664,19 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>130.4894025904364</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>205.6602704170755</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -712,7 +712,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>19.16056802173573</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>169.016847353155</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,10 +901,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>358.6997160404765</v>
       </c>
       <c r="E5" t="n">
-        <v>232.3488304648444</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1062,16 +1062,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>114.3486586083441</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>2.357357178928582</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1116,10 +1116,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>63.50617658620671</v>
+        <v>306.1941869963597</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>122.6391170798909</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1302,10 +1302,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1347,10 +1347,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436913</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1390,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>129.7139627068451</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1590,7 +1590,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1767,25 +1767,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>109.1426757626846</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>31.24391673888107</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1912,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633437</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>18.05677735225719</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2098,7 +2098,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112154</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2137,7 +2137,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2244,7 +2244,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>24.62703520776638</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2487,16 +2487,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>169.8078304689392</v>
       </c>
       <c r="G25" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>67.84972440587259</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2772,7 +2772,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2952,25 +2952,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>136.9632003754826</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3283,10 +3283,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I35" t="n">
-        <v>0.412621479132161</v>
+        <v>0.4126214791313332</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800129</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3331,10 +3331,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864814</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="36">
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3520,10 +3520,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791323137</v>
+        <v>0.4126214791313332</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3568,10 +3568,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="39">
@@ -3669,7 +3669,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>7.264602967362117</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3909,13 +3909,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225751</v>
+        <v>54.49360828358961</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -4030,7 +4030,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>763.0287521501522</v>
+        <v>947.0019290635947</v>
       </c>
       <c r="C2" t="n">
-        <v>728.9266833739796</v>
+        <v>912.8998602874221</v>
       </c>
       <c r="D2" t="n">
-        <v>697.0573025888282</v>
+        <v>781.092382923345</v>
       </c>
       <c r="E2" t="n">
-        <v>667.3229617875274</v>
+        <v>751.3580421220443</v>
       </c>
       <c r="F2" t="n">
-        <v>643.4959362371393</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>242.0981048604032</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4333,25 +4333,25 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
         <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>1277.130531135514</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4360,22 +4360,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W2" t="n">
-        <v>1612.716505715692</v>
+        <v>1392.64927858873</v>
       </c>
       <c r="X2" t="n">
-        <v>1597.614446335406</v>
+        <v>1377.547219208445</v>
       </c>
       <c r="Y2" t="n">
-        <v>1189.32832263506</v>
+        <v>1373.301499548503</v>
       </c>
     </row>
     <row r="3">
@@ -4415,22 +4415,22 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1644.724363562988</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>705.2562847857771</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="C4" t="n">
-        <v>705.2562847857771</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="D4" t="n">
-        <v>705.2562847857771</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="E4" t="n">
-        <v>535.4982810365143</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="F4" t="n">
-        <v>358.7912269982705</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G4" t="n">
-        <v>193.1999520240982</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>53.29777771447272</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>68.4625259617433</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>343.2209805328789</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>761.43086230084</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>761.43086230084</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4527,13 +4527,13 @@
         <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>705.2562847857771</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>705.2562847857771</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="Y4" t="n">
-        <v>705.2562847857771</v>
+        <v>262.5057921365585</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1183.424247503185</v>
+        <v>904.4591712531736</v>
       </c>
       <c r="C5" t="n">
-        <v>745.2817746866085</v>
+        <v>466.3166984365969</v>
       </c>
       <c r="D5" t="n">
-        <v>309.371989861053</v>
+        <v>103.993752941166</v>
       </c>
       <c r="E5" t="n">
-        <v>74.6762015127253</v>
+        <v>74.25941213986528</v>
       </c>
       <c r="F5" t="n">
-        <v>50.84917596233709</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="G5" t="n">
-        <v>50.84917596233709</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233709</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947709</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J5" t="n">
         <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>485.687074042395</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
         <v>1109.787858087174</v>
       </c>
       <c r="M5" t="n">
-        <v>1728.364480676019</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="N5" t="n">
-        <v>2352.465264720798</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="O5" t="n">
-        <v>2352.465264720798</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="P5" t="n">
-        <v>2352.465264720798</v>
+        <v>1805.966478762202</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720798</v>
+        <v>2352.465264720797</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473855</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.967455657692</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.967455657692</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.967455657692</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.967455657692</v>
+        <v>2159.00237940768</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.152405109129</v>
+        <v>1754.146924818713</v>
       </c>
       <c r="X5" t="n">
-        <v>2018.00994168844</v>
+        <v>1739.044865438428</v>
       </c>
       <c r="Y5" t="n">
-        <v>1609.723817988093</v>
+        <v>1330.758741738081</v>
       </c>
     </row>
     <row r="6">
@@ -4640,10 +4640,10 @@
         <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947709</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993469</v>
+        <v>76.49605974993467</v>
       </c>
       <c r="J6" t="n">
         <v>401.054384716147</v>
@@ -4652,16 +4652,16 @@
         <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>1025.155168760926</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1025.155168760926</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1025.155168760926</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1025.155168760926</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
         <v>1055.760431341871</v>
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1129.490547201358</v>
+        <v>593.0357356940381</v>
       </c>
       <c r="C7" t="n">
-        <v>956.9288356845833</v>
+        <v>420.474024177263</v>
       </c>
       <c r="D7" t="n">
-        <v>791.050842886106</v>
+        <v>254.5960313787857</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368433</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985996</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244272</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="H7" t="n">
         <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947709</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J7" t="n">
-        <v>50.43238658947709</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="K7" t="n">
-        <v>325.1908411606127</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
         <v>743.4007229285737</v>
@@ -4746,31 +4746,31 @@
         <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473855</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="R7" t="n">
-        <v>2519.23816060625</v>
+        <v>2500.201508179226</v>
       </c>
       <c r="S7" t="n">
-        <v>2359.996791904246</v>
+        <v>2340.960139477222</v>
       </c>
       <c r="T7" t="n">
-        <v>2114.117345482702</v>
+        <v>2095.080693055677</v>
       </c>
       <c r="U7" t="n">
-        <v>1835.684344735807</v>
+        <v>1816.647692308783</v>
       </c>
       <c r="V7" t="n">
-        <v>1548.728836606237</v>
+        <v>1529.692184179213</v>
       </c>
       <c r="W7" t="n">
-        <v>1548.728836606237</v>
+        <v>1257.665779765505</v>
       </c>
       <c r="X7" t="n">
-        <v>1548.728836606237</v>
+        <v>1012.274025098917</v>
       </c>
       <c r="Y7" t="n">
-        <v>1321.309165920346</v>
+        <v>784.8543544130252</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1415.517618276922</v>
+        <v>448.5358106104095</v>
       </c>
       <c r="C8" t="n">
-        <v>1351.369965159541</v>
+        <v>139.2487530383289</v>
       </c>
       <c r="D8" t="n">
-        <v>915.4601803339856</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>481.6854354922808</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
         <v>53.81800590148855</v>
@@ -4804,52 +4804,52 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>488.6559039815464</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>488.6559039815464</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W8" t="n">
-        <v>2265.205371842461</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="X8" t="n">
-        <v>1846.062908421772</v>
+        <v>1283.121504795664</v>
       </c>
       <c r="Y8" t="n">
-        <v>1437.776784721425</v>
+        <v>874.8353810953173</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>714.2412710704069</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>714.2412710704069</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1375.081325612185</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>617.5993366113188</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>451.7213438128414</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>281.9633400635787</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>281.9633400635787</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
         <v>281.9633400635787</v>
@@ -4995,19 +4995,19 @@
         <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
         <v>102.2608402707796</v>
@@ -5050,43 +5050,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5126,19 +5126,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>634.526213836947</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>634.526213836947</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>634.526213836947</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
         <v>1648.327823655249</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>952.7568773477108</v>
+        <v>1083.7810821021</v>
       </c>
       <c r="C13" t="n">
-        <v>780.1951658309357</v>
+        <v>911.2193705853248</v>
       </c>
       <c r="D13" t="n">
-        <v>614.3171730324584</v>
+        <v>745.3413777868475</v>
       </c>
       <c r="E13" t="n">
-        <v>444.5591692831957</v>
+        <v>575.5833740375847</v>
       </c>
       <c r="F13" t="n">
-        <v>267.852115244952</v>
+        <v>398.8763199993409</v>
       </c>
       <c r="G13" t="n">
-        <v>102.2608402707796</v>
+        <v>233.2850450251686</v>
       </c>
       <c r="H13" t="n">
         <v>102.2608402707796</v>
@@ -5226,25 +5226,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1617.386921419177</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="X13" t="n">
-        <v>1371.99516675259</v>
+        <v>1503.019371506979</v>
       </c>
       <c r="Y13" t="n">
-        <v>1144.575496066698</v>
+        <v>1275.599700821087</v>
       </c>
     </row>
     <row r="14">
@@ -5266,40 +5266,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436395</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
         <v>5113.04201353898</v>
@@ -5323,7 +5323,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>782.9943603411569</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1224.761663117513</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1224.761663117513</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1224.761663117513</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1224.761663117513</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>790.3368563937634</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C16" t="n">
-        <v>617.7751448769883</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="D16" t="n">
-        <v>507.5300178439735</v>
+        <v>645.8766848899141</v>
       </c>
       <c r="E16" t="n">
-        <v>507.5300178439735</v>
+        <v>476.1186811406514</v>
       </c>
       <c r="F16" t="n">
-        <v>330.8229638057297</v>
+        <v>299.4116271024076</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057297</v>
+        <v>133.8203521282352</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5460,28 +5460,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004233</v>
@@ -5554,7 +5554,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771591</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004229</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5752,37 +5752,37 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
         <v>4550.100609912873</v>
@@ -5791,7 +5791,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
@@ -5843,10 +5843,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N21" t="n">
-        <v>1336.088111831086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P21" t="n">
         <v>1765.500601749588</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
         <v>614.3171730324584</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6068,28 +6068,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>1082.867562242341</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1082.867562242341</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1082.867562242341</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716164</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731391</v>
+        <v>837.6953036089013</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238763</v>
+        <v>667.9372998596386</v>
       </c>
       <c r="F25" t="n">
-        <v>126.8499155856325</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6232,13 +6232,13 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2443.348304557486</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2443.348304557486</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
         <v>3569.079287993933</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1077.292364523333</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>2013.948813008508</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1741.922408594799</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1496.530653928212</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1269.11098324232</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6466,22 +6466,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.671098481817</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>3137.402081918264</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>4117.581748488571</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4945.891623321967</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3205.876241053795</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>3067.529574007853</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>2901.651581209376</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>2901.651581209376</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>2724.944527171132</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>4953.800644836978</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>4707.921198415434</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>4429.488197668539</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>4142.53268953897</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>3870.506285125261</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>3625.114530458674</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>3397.694859772782</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6703,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>605.8694973157604</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>1680.92946356862</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2837.977298779171</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>3963.708282215618</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6782,25 +6782,25 @@
         <v>426.819165236992</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.552685307369</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1246.54233171619</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6916,22 +6916,22 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004242</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436404</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6940,49 +6940,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="N35" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O35" t="n">
-        <v>4875.533979193861</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P35" t="n">
-        <v>4875.533979193861</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -6995,16 +6995,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G36" t="n">
         <v>143.9964924545671</v>
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>128.3245134312372</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M36" t="n">
-        <v>414.500552094942</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N36" t="n">
-        <v>1648.327823655249</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O36" t="n">
-        <v>1648.327823655249</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="P36" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7122,7 +7122,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
         <v>2454.80183470935</v>
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771604</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004243</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436405</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7183,43 +7183,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E40" t="n">
         <v>444.5591692831957</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
         <v>1654.847790009657</v>
@@ -7399,7 +7399,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
         <v>391.8077842004234</v>
@@ -7411,52 +7411,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7493,19 +7493,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
         <v>1107.588885023173</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>915.9519976190925</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>743.3902861023174</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>577.5122933038401</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7596,25 +7596,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130895</v>
+        <v>2663.876401402276</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2417.996954980732</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2139.563954233837</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1852.608446104267</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1580.582041690559</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1335.190287023971</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1107.77061633808</v>
       </c>
     </row>
     <row r="44">
@@ -7636,10 +7636,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7648,34 +7648,34 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
         <v>4809.322912595856</v>
@@ -7687,13 +7687,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7981,19 +7981,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8063,7 +8063,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>52.98895607821123</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>34.86753268700501</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,25 +8218,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L5" t="n">
-        <v>630.4048323684638</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>624.8248713018634</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>630.4048323684638</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684636</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>30.9144066474189</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>110.4038313238384</v>
+        <v>110.4038313238375</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8543,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.5152066078568</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>226.6534083847603</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8698,10 +8698,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8774,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>183.4781570095934</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>922.699389992646</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9491,13 +9491,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>433.7499898166689</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>689.5283227345933</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,16 +9880,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1082.305540278395</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -10114,13 +10114,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10129,10 +10129,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>168.8387779969835</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>508.6956131767483</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,10 +10430,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>524.2002727610084</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,25 +10588,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>69.04441372935707</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10670,25 +10670,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M36" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,10 +10831,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>187.4796750234296</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,22 +11141,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11305,22 +11305,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>8.789189859684171</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>55.07653710780788</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>107.2592358276482</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>120.446375214272</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>5.132153028922176</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>102.9863699957347</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>33.87289402612473</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>139.5921776627258</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627258</v>
+        <v>103.1553467313937</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>488947.8667847083</v>
+        <v>488947.8667847082</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>488947.8667847083</v>
+        <v>488947.8667847082</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>488947.8667847083</v>
+        <v>488947.8667847082</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>488947.8667847083</v>
+        <v>488947.8667847082</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>488947.8667847083</v>
+        <v>488947.8667847082</v>
       </c>
     </row>
   </sheetData>
@@ -26319,10 +26319,10 @@
         <v>522743.6368931484</v>
       </c>
       <c r="D2" t="n">
-        <v>522743.6368931482</v>
+        <v>522743.6368931483</v>
       </c>
       <c r="E2" t="n">
-        <v>513686.1445339185</v>
+        <v>513686.1445339184</v>
       </c>
       <c r="F2" t="n">
         <v>513686.1445339184</v>
@@ -26331,7 +26331,7 @@
         <v>513686.1445339185</v>
       </c>
       <c r="H2" t="n">
-        <v>513686.1445339184</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="I2" t="n">
         <v>513686.1445339185</v>
@@ -26343,7 +26343,7 @@
         <v>513686.1445339185</v>
       </c>
       <c r="L2" t="n">
-        <v>513686.1445339186</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="M2" t="n">
         <v>513686.1445339184</v>
@@ -26352,7 +26352,7 @@
         <v>513686.1445339184</v>
       </c>
       <c r="O2" t="n">
-        <v>513686.1445339184</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="P2" t="n">
         <v>513686.1445339185</v>
@@ -26368,13 +26368,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501621</v>
+        <v>66587.76789501611</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998273</v>
+        <v>11527.59554998282</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210497</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26392,19 +26392,19 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877254</v>
+        <v>53045.85463877247</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622285</v>
+        <v>9392.301726622358</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379876</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.861628258540616e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="F4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="G4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.57146904278</v>
+        <v>81439.57146904286</v>
       </c>
       <c r="I4" t="n">
         <v>81439.57146904283</v>
@@ -26450,16 +26450,16 @@
         <v>81439.57146904283</v>
       </c>
       <c r="M4" t="n">
-        <v>81439.5714690428</v>
+        <v>81439.5714690429</v>
       </c>
       <c r="N4" t="n">
-        <v>81439.5714690428</v>
+        <v>81439.57146904287</v>
       </c>
       <c r="O4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="P4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
     </row>
     <row r="5">
@@ -26472,13 +26472,13 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800259</v>
+        <v>71956.21380800258</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
         <v>77718.2386057925</v>
@@ -26487,7 +26487,7 @@
         <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26502,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26530,40 +26530,40 @@
         <v>271740.4285218494</v>
       </c>
       <c r="E6" t="n">
-        <v>172173.2252380335</v>
+        <v>172150.0008986505</v>
       </c>
       <c r="F6" t="n">
-        <v>354528.3344590831</v>
+        <v>354505.1101197004</v>
       </c>
       <c r="G6" t="n">
-        <v>354528.3344590832</v>
+        <v>354505.1101197005</v>
       </c>
       <c r="H6" t="n">
-        <v>354528.334459083</v>
+        <v>354505.1101197005</v>
       </c>
       <c r="I6" t="n">
-        <v>354528.3344590832</v>
+        <v>354505.1101197005</v>
       </c>
       <c r="J6" t="n">
-        <v>243513.869114093</v>
+        <v>243490.6447747104</v>
       </c>
       <c r="K6" t="n">
-        <v>301482.4798203106</v>
+        <v>301459.2554809281</v>
       </c>
       <c r="L6" t="n">
-        <v>345136.032732461</v>
+        <v>345112.8083930782</v>
       </c>
       <c r="M6" t="n">
-        <v>202328.1635210955</v>
+        <v>202304.9391817127</v>
       </c>
       <c r="N6" t="n">
-        <v>354528.3344590831</v>
+        <v>354505.1101197004</v>
       </c>
       <c r="O6" t="n">
-        <v>354528.334459083</v>
+        <v>354505.1101197005</v>
       </c>
       <c r="P6" t="n">
-        <v>354528.3344590832</v>
+        <v>354505.1101197005</v>
       </c>
     </row>
   </sheetData>
@@ -26703,10 +26703,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26718,10 +26718,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684636</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26940,13 +26940,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483593</v>
+        <v>206.1089748483591</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939328</v>
+        <v>37.11037423939356</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483593</v>
+        <v>206.1089748483591</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939328</v>
+        <v>37.11037423939356</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483593</v>
+        <v>206.1089748483591</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939328</v>
+        <v>37.11037423939356</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>301.0612843868635</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>80.57858259414044</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27447,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27545,19 +27545,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>68.61278171133569</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27599,10 +27599,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>73.92098976676664</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27621,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>72.85097093682339</v>
       </c>
       <c r="E5" t="n">
-        <v>197.0881669284433</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27675,13 +27675,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27782,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>53.71176510342602</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>18.84628590275326</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27836,10 +27836,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>127.5668610920512</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>370.2548715022042</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>48.19697732171639</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28067,10 +28067,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>111.4236523045825</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.142369289011372e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I35" t="n">
-        <v>-7.634720442058159e-13</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>9.641133868265986e-13</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I38" t="n">
-        <v>-9.161664530469791e-13</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30276,22 +30276,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="39">
@@ -34701,19 +34701,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34722,7 +34722,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>52.98895607821123</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>34.86753268700501</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L5" t="n">
-        <v>630.4048323684638</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>624.8248713018634</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>630.4048323684638</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35017,10 +35017,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684636</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>30.9144066474189</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35099,7 +35099,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
         <v>464.1251183645586</v>
@@ -35114,7 +35114,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>110.4038313238384</v>
+        <v>110.4038313238375</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35263,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.5152066078568</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>226.6534083847603</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35418,10 +35418,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
@@ -35494,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>183.4781570095934</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35743,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>922.699389992646</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36211,13 +36211,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>433.7499898166689</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>-4.524284588552815e-13</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36451,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>689.5283227345933</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36600,16 +36600,16 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>1082.305540278395</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
@@ -36834,25 +36834,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>168.8387779969835</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36928,13 +36928,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37004,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>508.6956131767483</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37092,7 +37092,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327043</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>524.2002727610084</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081364</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>69.04441372935707</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>170.862691669754</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M36" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,10 +37551,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>187.4796750234296</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37639,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
